--- a/upload/sample_template.xlsx
+++ b/upload/sample_template.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nelsonattah/Projects/Caritas_NMRS/nmrs_tracking_automator/upload/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728A6934-3B8A-804F-8918-6D4E9A188F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27760" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27750" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="CT&amp;DF" sheetId="1" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Facility Name</t>
   </si>
@@ -58,53 +52,108 @@
     <t>Date returned to care(if valid &amp; retained)</t>
   </si>
   <si>
-    <t>Abia State Specialist Hospital Amachara</t>
-  </si>
-  <si>
-    <t>FCT14202969</t>
+    <t>Verification Status</t>
+  </si>
+  <si>
+    <t>GH Isiukwuato</t>
+  </si>
+  <si>
+    <t>ABI02700410</t>
   </si>
   <si>
     <t>3&amp;5</t>
   </si>
   <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Could not verify client</t>
+  </si>
+  <si>
+    <t>Verification ongoing</t>
+  </si>
+  <si>
+    <t>ABI02700415</t>
+  </si>
+  <si>
+    <t>2,3,4&amp;5</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Patient records terminated</t>
+  </si>
+  <si>
+    <t>ABI02700416</t>
+  </si>
+  <si>
+    <t>Consistently had drug pickup by proxy without viral load sample collection for two quarters</t>
+  </si>
+  <si>
+    <t>Discontinued care</t>
+  </si>
+  <si>
+    <t>ABI02700417</t>
+  </si>
+  <si>
+    <t>Transferred out to another facility</t>
+  </si>
+  <si>
+    <t>ABI02700418</t>
+  </si>
+  <si>
+    <t>2&amp;4</t>
+  </si>
+  <si>
+    <t>Lost_to_followup</t>
+  </si>
+  <si>
+    <t>ABI02700420</t>
+  </si>
+  <si>
+    <t>2,3&amp;4</t>
+  </si>
+  <si>
+    <t>Duplicate Record</t>
+  </si>
+  <si>
+    <t>ABI02700414</t>
+  </si>
+  <si>
+    <t>2&amp;5</t>
+  </si>
+  <si>
     <t>Valid</t>
   </si>
   <si>
-    <t>ABI00900335</t>
-  </si>
-  <si>
-    <t>2,3,4&amp;5</t>
-  </si>
-  <si>
-    <t>ABI00902722</t>
-  </si>
-  <si>
-    <t>Consistently had drug pickup by proxy without viral load sample collection for two quarters</t>
-  </si>
-  <si>
-    <t>ABI00900349</t>
-  </si>
-  <si>
-    <t>ABI00900533</t>
-  </si>
-  <si>
-    <t>2&amp;4</t>
-  </si>
-  <si>
-    <t>ABI00900705</t>
-  </si>
-  <si>
-    <t>2,3&amp;4</t>
+    <t>Records verified</t>
+  </si>
+  <si>
+    <t>ABI02700413</t>
+  </si>
+  <si>
+    <t>2,3&amp;5</t>
+  </si>
+  <si>
+    <t>ABI02700419</t>
+  </si>
+  <si>
+    <t>2&amp;6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]dd/mmm/yy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-409]dd/mmm/yy;@"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,17 +166,161 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,7 +329,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -148,18 +347,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -199,6 +572,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -214,22 +600,275 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,11 +878,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -253,174 +895,117 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
+          <fgColor theme="4" tint="0.799920651875362"/>
+          <bgColor theme="4" tint="0.799920651875362"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
+          <fgColor theme="4" tint="0.799920651875362"/>
+          <bgColor theme="4" tint="0.799920651875362"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79992065187536243"/>
-          <bgColor theme="4" tint="0.79992065187536243"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -431,7 +1016,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -459,47 +1044,161 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39991454817346722"/>
+          <color theme="4" tint="0.399914548173467"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799920651875362"/>
+          <bgColor theme="4" tint="0.799920651875362"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399914548173467"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799920651875362"/>
+          <bgColor theme="4" tint="0.799920651875362"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399914548173467"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399914548173467"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799920651875362"/>
+          <bgColor theme="4" tint="0.799920651875362"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799920651875362"/>
+          <bgColor theme="4" tint="0.799920651875362"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799920651875362"/>
+          <bgColor theme="4" tint="0.799920651875362"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399914548173467"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399914548173467"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799920651875362"/>
+          <bgColor theme="4" tint="0.799920651875362"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399914548173467"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Drop-down options"/>
@@ -763,239 +1462,360 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.6666666666667" defaultRowHeight="52" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6666666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3333333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11" max="16371" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.6666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.74" customWidth="1"/>
+    <col min="12" max="16369" width="14.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="54" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="16" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" customHeight="1" spans="1:11">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7">
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="11">
+      <c r="E2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="12">
         <v>45284</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="13">
+      <c r="H2" s="12"/>
+      <c r="I2" s="17">
         <v>45289</v>
       </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" customHeight="1" spans="1:11">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="F3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="12">
+        <v>45275</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="17">
+        <v>45280</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="11">
-        <v>45275</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="13">
-        <v>45280</v>
+      <c r="E4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="12">
+        <v>45284</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="17">
+        <v>45289</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="18" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="5" customHeight="1" spans="1:11">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="12">
+        <v>45288</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="17">
+        <v>45293</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7">
+    </row>
+    <row r="6" customHeight="1" spans="1:11">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="11">
-        <v>45284</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="13">
+      <c r="E6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="12">
         <v>45289</v>
       </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="17">
+        <v>45294</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6">
+    <row r="7" customHeight="1" spans="1:11">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="12">
+        <v>45261</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="17">
+        <v>45266</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:11">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="11">
+      <c r="E8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12">
         <v>45288</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="13">
+      <c r="H8" s="13"/>
+      <c r="I8" s="17">
         <v>45293</v>
       </c>
+      <c r="J8" s="12">
+        <v>45288</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="7">
+    <row r="9" customHeight="1" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="11">
+      <c r="E9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12">
         <v>45289</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="13">
+      <c r="H9" s="13"/>
+      <c r="I9" s="17">
         <v>45294</v>
       </c>
+      <c r="J9" s="12">
+        <v>45289</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="7">
+    <row r="10" customHeight="1" spans="1:11">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="11">
+      <c r="E10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12">
         <v>45261</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="13">
+      <c r="H10" s="13"/>
+      <c r="I10" s="17">
         <v>45266</v>
+      </c>
+      <c r="J10" s="12">
+        <v>45261</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <autoFilter ref="A1:J7">
+    <extLst/>
+  </autoFilter>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7">
+      <formula1>'[1]Drop-down options'!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 D6:D10">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>'/Users/nelsonattah/Projects/Caritas_NMRS/nmrs_tracking_automator/upload/[Abia Final_Client Verification Tracker_v1_Wk 5_08.01.24_Reviewed.xlsm]Drop-down options'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F7</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>